--- a/medicine/Enfance/Florence_Delclos/Florence_Delclos.xlsx
+++ b/medicine/Enfance/Florence_Delclos/Florence_Delclos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Delclos, née le 24 novembre 1964 à Paris, est une illustratrice française. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Delclos suit ses parents dans le sud de le France, de  Perpignan à Toulouse, où elle fera ses premières armes dans le monde du graphisme.
 Elle entre à l'École supérieure des arts décoratifs de Strasbourg en 1986, dans l'atelier de Claude Lapointe. En 1989, elle part en Écosse dans le cadre du programme Erasmus, pour parfaire ses techniques de graphisme. Elle ressort diplômée de l'école en 1992. Pendant deux ans, elle donne des cours de dessin dans les écoles primaires de la ville, avant de s'établir à Paris.
@@ -547,23 +561,96 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livre jeunesse
-Histoire de courses, Éd. DDB.
+          <t>Livre jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Histoire de courses, Éd. DDB.
 Un mot, un jour, Éd. Play-Back.
 Alexis contre le Père Noël, Éd. Fleurus-Mane.
 Mon anniversaire a disparu, Éd. Fleurus-Mane.
 Théo Benjamin, Éd. Fleurus-Mane.
 La Maison des Lipangous, Éd. Fleurus-Mane.
-Le Petit Léonard et le grand Léopold, Éd. Fleurus-Mane.
-Périodique
-Les clés de l'actualité, Éd. Milan Presse.
+Le Petit Léonard et le grand Léopold, Éd. Fleurus-Mane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Florence_Delclos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Delclos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Périodique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les clés de l'actualité, Éd. Milan Presse.
 Winnie, Éd. Disney Hachette Presse :
 « Balthazar et l'étoile de la nouvelle année » ;
 « Monsieur Hiver est en retard » ;
 « Le Marchand d'histoire ».
-« Tous en vacances », Bambi, Éd. Disney Hachette Presse.
-Livre scolaire et parascolaire
-J'écris seul, tu écris seul - CP/CE1, Éd. Nathan.
+« Tous en vacances », Bambi, Éd. Disney Hachette Presse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Florence_Delclos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Florence_Delclos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livre scolaire et parascolaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J'écris seul, tu écris seul - CP/CE1, Éd. Nathan.
 Maths CE2, Éd. Nathan.
 Les Savoirs de l'école française, Éd. Hachette.
 L'Année de la troisième, Éd. Bordas.
